--- a/TXTL_template_2.2.xlsx
+++ b/TXTL_template_2.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24540" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="2" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="233">
+  <dxfs count="109">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1113,6 +1113,16 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1142,16 +1152,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1163,6 +1163,16 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1192,16 +1202,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1213,6 +1213,16 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1242,16 +1252,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1263,6 +1263,16 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1292,16 +1302,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1313,6 +1313,16 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1342,16 +1352,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1363,6 +1363,16 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1392,16 +1402,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1413,6 +1413,16 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1442,16 +1452,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1463,6 +1463,16 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1492,16 +1502,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1513,781 +1513,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -2855,8 +2080,8 @@
   </sheetPr>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393:P404"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -2981,15 +2206,15 @@
       </c>
       <c r="C12" s="67">
         <f>0.75-C13</f>
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="D12" s="67">
         <f>IFERROR(C12*$K$12/B12, "")</f>
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E12" s="5">
         <f>D12*$I$15*$L$12*$M$12</f>
-        <v>78.539999999999992</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="F12" s="17"/>
       <c r="I12" s="6">
@@ -3000,6 +2225,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="75">
+        <f>7 *10 / $K$12</f>
         <v>7</v>
       </c>
       <c r="M12" s="75">
@@ -3015,15 +2241,15 @@
         <v>1</v>
       </c>
       <c r="C13" s="29">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="D13" s="67">
         <f t="shared" ref="D13:D17" si="0">IFERROR(C13*$K$12/B13, "")</f>
-        <v>2.4</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="E13" s="5">
         <f>D13*$I$15*$L$12*$M$12</f>
-        <v>36.960000000000008</v>
+        <v>50.820000000000007</v>
       </c>
       <c r="F13" s="17"/>
     </row>
@@ -28453,441 +27679,441 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="P21:P116 D21:E116">
-    <cfRule type="cellIs" dxfId="232" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="122" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="230" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="117" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="expression" dxfId="228" priority="115">
+    <cfRule type="expression" dxfId="104" priority="115">
       <formula>(MM_sum/_xlnm.extract &gt; 85.5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="227" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="114" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="225" priority="112">
+    <cfRule type="expression" dxfId="101" priority="112">
       <formula>(MM_sum/_xlnm.extract &gt; 85.5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E17">
-    <cfRule type="cellIs" dxfId="224" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E17">
-    <cfRule type="expression" dxfId="222" priority="103">
+    <cfRule type="expression" dxfId="98" priority="103">
       <formula>(MM_sum/_xlnm.extract &gt; 85.5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:O116">
-    <cfRule type="cellIs" dxfId="221" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="97" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117:P128 D117:E128">
-    <cfRule type="cellIs" dxfId="191" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="96" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117:O128">
-    <cfRule type="cellIs" dxfId="187" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P129:P140 D129:E140">
-    <cfRule type="cellIs" dxfId="183" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F129:O140">
-    <cfRule type="cellIs" dxfId="179" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P141:P152 D141:E152">
-    <cfRule type="cellIs" dxfId="175" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141:O152">
-    <cfRule type="cellIs" dxfId="171" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P153:P164 D153:E164">
-    <cfRule type="cellIs" dxfId="167" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153:O164">
-    <cfRule type="cellIs" dxfId="163" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P165:P176 D165:E176">
-    <cfRule type="cellIs" dxfId="159" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="80" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165:O176">
-    <cfRule type="cellIs" dxfId="155" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P177:P188 D177:E188">
-    <cfRule type="cellIs" dxfId="151" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F177:O188">
-    <cfRule type="cellIs" dxfId="147" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P189:P200 D189:E200">
-    <cfRule type="cellIs" dxfId="143" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189:O200">
-    <cfRule type="cellIs" dxfId="139" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P201:P212 D201:E212">
-    <cfRule type="cellIs" dxfId="135" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F201:O212">
-    <cfRule type="cellIs" dxfId="131" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P213:P224 D213:E224">
-    <cfRule type="cellIs" dxfId="127" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213:O224">
-    <cfRule type="cellIs" dxfId="123" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P225:P236 D225:E236">
-    <cfRule type="cellIs" dxfId="119" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225:O236">
-    <cfRule type="cellIs" dxfId="115" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P237:P248 D237:E248">
-    <cfRule type="cellIs" dxfId="111" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F237:O248">
-    <cfRule type="cellIs" dxfId="107" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P249:P260 D249:E260">
-    <cfRule type="cellIs" dxfId="103" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F249:O260">
-    <cfRule type="cellIs" dxfId="99" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P261:P272 D261:E272">
-    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:O272">
-    <cfRule type="cellIs" dxfId="91" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P273:P284 D273:E284">
-    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:O284">
-    <cfRule type="cellIs" dxfId="83" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P285:P296 D285:E296">
-    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F285:O296">
-    <cfRule type="cellIs" dxfId="75" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P297:P308 D297:E308">
-    <cfRule type="cellIs" dxfId="71" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F297:O308">
-    <cfRule type="cellIs" dxfId="67" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P309:P320 D309:E320">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F309:O320">
-    <cfRule type="cellIs" dxfId="59" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P321:P332 D321:E332">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F321:O332">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P333:P344 D333:E344">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F333:O344">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P345:P356 D345:E356">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F345:O356">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P357:P368 D357:E368">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F357:O368">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P369:P380 D369:E380">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369:O380">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P381:P392 D381:E392">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F381:O392">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P393:P404 D393:E404">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F393:O404">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
